--- a/鍾昀臻/功能確認表.xlsx
+++ b/鍾昀臻/功能確認表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>使用者端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>審核學生選課單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINE BOT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,13 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
@@ -553,21 +561,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -577,135 +585,145 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/鍾昀臻/功能確認表.xlsx
+++ b/鍾昀臻/功能確認表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>使用者端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介面完成進度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +208,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -496,9 +506,11 @@
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,14 +520,17 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,51 +540,63 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -577,31 +604,40 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -611,31 +647,40 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -643,21 +688,27 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -667,31 +718,40 @@
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -699,17 +759,23 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
